--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H2">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I2">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J2">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N2">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O2">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P2">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q2">
-        <v>700.8315470916308</v>
+        <v>704.4235459937806</v>
       </c>
       <c r="R2">
-        <v>700.8315470916308</v>
+        <v>6339.811913944025</v>
       </c>
       <c r="S2">
-        <v>0.09961255909156949</v>
+        <v>0.08990769674943051</v>
       </c>
       <c r="T2">
-        <v>0.09961255909156949</v>
+        <v>0.08990769674943054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H3">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I3">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J3">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N3">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O3">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P3">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q3">
-        <v>977.3259144549562</v>
+        <v>981.9184779215249</v>
       </c>
       <c r="R3">
-        <v>977.3259144549562</v>
+        <v>8837.266301293725</v>
       </c>
       <c r="S3">
-        <v>0.1389120335826405</v>
+        <v>0.1253252098793561</v>
       </c>
       <c r="T3">
-        <v>0.1389120335826405</v>
+        <v>0.1253252098793562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H4">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I4">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J4">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N4">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O4">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P4">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q4">
-        <v>251.7287059861168</v>
+        <v>252.0857591751</v>
       </c>
       <c r="R4">
-        <v>251.7287059861168</v>
+        <v>2268.7718325759</v>
       </c>
       <c r="S4">
-        <v>0.03577941190596532</v>
+        <v>0.0321744639566108</v>
       </c>
       <c r="T4">
-        <v>0.03577941190596532</v>
+        <v>0.0321744639566108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H5">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I5">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J5">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N5">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O5">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P5">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q5">
-        <v>230.5116896328144</v>
+        <v>239.9232158966139</v>
       </c>
       <c r="R5">
-        <v>230.5116896328144</v>
+        <v>2159.308943069525</v>
       </c>
       <c r="S5">
-        <v>0.03276373530862772</v>
+        <v>0.03062212196151001</v>
       </c>
       <c r="T5">
-        <v>0.03276373530862772</v>
+        <v>0.03062212196151002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H6">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I6">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J6">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.1699824095798</v>
+        <v>71.92949600000001</v>
       </c>
       <c r="N6">
-        <v>59.1699824095798</v>
+        <v>215.788488</v>
       </c>
       <c r="O6">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="P6">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="Q6">
-        <v>1996.967099412623</v>
+        <v>2430.678092992467</v>
       </c>
       <c r="R6">
-        <v>1996.967099412623</v>
+        <v>21876.1028369322</v>
       </c>
       <c r="S6">
-        <v>0.2838385401166191</v>
+        <v>0.3102347587940796</v>
       </c>
       <c r="T6">
-        <v>0.2838385401166191</v>
+        <v>0.3102347587940796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H7">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J7">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N7">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O7">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P7">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q7">
-        <v>310.2780297565068</v>
+        <v>311.5060315111214</v>
       </c>
       <c r="R7">
-        <v>310.2780297565068</v>
+        <v>2803.554283600093</v>
       </c>
       <c r="S7">
-        <v>0.04410130894106963</v>
+        <v>0.03975845210740262</v>
       </c>
       <c r="T7">
-        <v>0.04410130894106963</v>
+        <v>0.03975845210740263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H8">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J8">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N8">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O8">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P8">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q8">
-        <v>432.6899387241945</v>
+        <v>434.218205885292</v>
       </c>
       <c r="R8">
-        <v>432.6899387241945</v>
+        <v>3907.963852967628</v>
       </c>
       <c r="S8">
-        <v>0.06150030241697452</v>
+        <v>0.0554205761574036</v>
       </c>
       <c r="T8">
-        <v>0.06150030241697452</v>
+        <v>0.05542057615740362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H9">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J9">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N9">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O9">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P9">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q9">
-        <v>111.4474473226236</v>
+        <v>111.475879657488</v>
       </c>
       <c r="R9">
-        <v>111.4474473226236</v>
+        <v>1003.282916917392</v>
       </c>
       <c r="S9">
-        <v>0.01584056179848014</v>
+        <v>0.01422800194587751</v>
       </c>
       <c r="T9">
-        <v>0.01584056179848014</v>
+        <v>0.01422800194587751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H10">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I10">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J10">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N10">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O10">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P10">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q10">
-        <v>102.0540716123924</v>
+        <v>106.0974314052813</v>
       </c>
       <c r="R10">
-        <v>102.0540716123924</v>
+        <v>954.8768826475321</v>
       </c>
       <c r="S10">
-        <v>0.01450543612257734</v>
+        <v>0.01354153441197401</v>
       </c>
       <c r="T10">
-        <v>0.01450543612257734</v>
+        <v>0.01354153441197402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H11">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I11">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J11">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.1699824095798</v>
+        <v>71.92949600000001</v>
       </c>
       <c r="N11">
-        <v>59.1699824095798</v>
+        <v>215.788488</v>
       </c>
       <c r="O11">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="P11">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="Q11">
-        <v>884.1140494682998</v>
+        <v>1074.880149783904</v>
       </c>
       <c r="R11">
-        <v>884.1140494682998</v>
+        <v>9673.921348055139</v>
       </c>
       <c r="S11">
-        <v>0.1256633828226245</v>
+        <v>0.1371901877760442</v>
       </c>
       <c r="T11">
-        <v>0.1256633828226245</v>
+        <v>0.1371901877760443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H12">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I12">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J12">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N12">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O12">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P12">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q12">
-        <v>28.36151247340946</v>
+        <v>30.70930139028523</v>
       </c>
       <c r="R12">
-        <v>28.36151247340946</v>
+        <v>276.383712512567</v>
       </c>
       <c r="S12">
-        <v>0.004031158199010705</v>
+        <v>0.003919520539151605</v>
       </c>
       <c r="T12">
-        <v>0.004031158199010705</v>
+        <v>0.003919520539151606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H13">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I13">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J13">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N13">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O13">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P13">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q13">
-        <v>39.55078967039775</v>
+        <v>42.80667597026699</v>
       </c>
       <c r="R13">
-        <v>39.55078967039775</v>
+        <v>385.260083732403</v>
       </c>
       <c r="S13">
-        <v>0.005621543992290669</v>
+        <v>0.005463544857173015</v>
       </c>
       <c r="T13">
-        <v>0.005621543992290669</v>
+        <v>0.005463544857173016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H14">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I14">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J14">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N14">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O14">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P14">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q14">
-        <v>10.18705117423464</v>
+        <v>10.989663248388</v>
       </c>
       <c r="R14">
-        <v>10.18705117423464</v>
+        <v>98.906969235492</v>
       </c>
       <c r="S14">
-        <v>0.001447934587524518</v>
+        <v>0.001402643787723634</v>
       </c>
       <c r="T14">
-        <v>0.001447934587524518</v>
+        <v>0.001402643787723634</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H15">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I15">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J15">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N15">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O15">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P15">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q15">
-        <v>9.328433042031687</v>
+        <v>10.45943791827855</v>
       </c>
       <c r="R15">
-        <v>9.328433042031687</v>
+        <v>94.13494126450699</v>
       </c>
       <c r="S15">
-        <v>0.001325895062069228</v>
+        <v>0.001334969533420999</v>
       </c>
       <c r="T15">
-        <v>0.001325895062069228</v>
+        <v>0.001334969533421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H16">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I16">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J16">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.1699824095798</v>
+        <v>71.92949600000001</v>
       </c>
       <c r="N16">
-        <v>59.1699824095798</v>
+        <v>215.788488</v>
       </c>
       <c r="O16">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="P16">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="Q16">
-        <v>80.81400949203328</v>
+        <v>105.9652627527707</v>
       </c>
       <c r="R16">
-        <v>80.81400949203328</v>
+        <v>953.6873647749361</v>
       </c>
       <c r="S16">
-        <v>0.01148648391950785</v>
+        <v>0.01352466532916539</v>
       </c>
       <c r="T16">
-        <v>0.01148648391950785</v>
+        <v>0.0135246653291654</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H17">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I17">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J17">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N17">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O17">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P17">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q17">
-        <v>53.40313684811685</v>
+        <v>55.86842547719524</v>
       </c>
       <c r="R17">
-        <v>53.40313684811685</v>
+        <v>502.8158292947571</v>
       </c>
       <c r="S17">
-        <v>0.00759044473245251</v>
+        <v>0.007130655248875194</v>
       </c>
       <c r="T17">
-        <v>0.00759044473245251</v>
+        <v>0.007130655248875194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H18">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I18">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J18">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N18">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O18">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P18">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q18">
-        <v>74.47191806852987</v>
+        <v>77.876782541457</v>
       </c>
       <c r="R18">
-        <v>74.47191806852987</v>
+        <v>700.8910428731131</v>
       </c>
       <c r="S18">
-        <v>0.01058505195727731</v>
+        <v>0.009939648083002154</v>
       </c>
       <c r="T18">
-        <v>0.01058505195727731</v>
+        <v>0.009939648083002154</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H19">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I19">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J19">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N19">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O19">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P19">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q19">
-        <v>19.18164584651373</v>
+        <v>19.993134145548</v>
       </c>
       <c r="R19">
-        <v>19.18164584651373</v>
+        <v>179.938207309932</v>
       </c>
       <c r="S19">
-        <v>0.002726379596193587</v>
+        <v>0.002551783869309339</v>
       </c>
       <c r="T19">
-        <v>0.002726379596193587</v>
+        <v>0.002551783869309339</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H20">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I20">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J20">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N20">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O20">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P20">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q20">
-        <v>17.56491607382272</v>
+        <v>19.02851258138856</v>
       </c>
       <c r="R20">
-        <v>17.56491607382272</v>
+        <v>171.256613232497</v>
       </c>
       <c r="S20">
-        <v>0.002496586016430222</v>
+        <v>0.002428666316578961</v>
       </c>
       <c r="T20">
-        <v>0.002496586016430222</v>
+        <v>0.002428666316578962</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H21">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I21">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J21">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.1699824095798</v>
+        <v>71.92949600000001</v>
       </c>
       <c r="N21">
-        <v>59.1699824095798</v>
+        <v>215.788488</v>
       </c>
       <c r="O21">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="P21">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="Q21">
-        <v>152.1682460409791</v>
+        <v>192.7791293600507</v>
       </c>
       <c r="R21">
-        <v>152.1682460409791</v>
+        <v>1735.012164240457</v>
       </c>
       <c r="S21">
-        <v>0.02162840480500757</v>
+        <v>0.02460498034271516</v>
       </c>
       <c r="T21">
-        <v>0.02162840480500757</v>
+        <v>0.02460498034271516</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H22">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I22">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J22">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="N22">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="O22">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="P22">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="Q22">
-        <v>93.15403381972048</v>
+        <v>94.95377606553424</v>
       </c>
       <c r="R22">
-        <v>93.15403381972048</v>
+        <v>854.5839845898082</v>
       </c>
       <c r="S22">
-        <v>0.0132404309380664</v>
+        <v>0.01211923615027593</v>
       </c>
       <c r="T22">
-        <v>0.0132404309380664</v>
+        <v>0.01211923615027593</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H23">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I23">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J23">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="N23">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="O23">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="P23">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="Q23">
-        <v>129.9054696750443</v>
+        <v>132.359100994608</v>
       </c>
       <c r="R23">
-        <v>129.9054696750443</v>
+        <v>1191.231908951472</v>
       </c>
       <c r="S23">
-        <v>0.01846408930651571</v>
+        <v>0.01689339032167378</v>
       </c>
       <c r="T23">
-        <v>0.01846408930651571</v>
+        <v>0.01689339032167379</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H24">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I24">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J24">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="N24">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="O24">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="P24">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="Q24">
-        <v>33.45960165197768</v>
+        <v>33.980259266112</v>
       </c>
       <c r="R24">
-        <v>33.45960165197768</v>
+        <v>305.8223333950081</v>
       </c>
       <c r="S24">
-        <v>0.004755774137978734</v>
+        <v>0.004337002734987506</v>
       </c>
       <c r="T24">
-        <v>0.004755774137978734</v>
+        <v>0.004337002734987508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H25">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I25">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J25">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.83004373221169</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="N25">
-        <v>6.83004373221169</v>
+        <v>21.299681</v>
       </c>
       <c r="O25">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="P25">
-        <v>0.055446585046155</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="Q25">
-        <v>30.63945083666245</v>
+        <v>32.34079190670755</v>
       </c>
       <c r="R25">
-        <v>30.63945083666245</v>
+        <v>291.067127160368</v>
       </c>
       <c r="S25">
-        <v>0.00435493253645049</v>
+        <v>0.004127752582833697</v>
       </c>
       <c r="T25">
-        <v>0.00435493253645049</v>
+        <v>0.004127752582833698</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H26">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I26">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J26">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.1699824095798</v>
+        <v>71.92949600000001</v>
       </c>
       <c r="N26">
-        <v>59.1699824095798</v>
+        <v>215.788488</v>
       </c>
       <c r="O26">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="P26">
-        <v>0.4803444297698353</v>
+        <v>0.527373128805429</v>
       </c>
       <c r="Q26">
-        <v>265.4354551925308</v>
+        <v>327.6467185715627</v>
       </c>
       <c r="R26">
-        <v>265.4354551925308</v>
+        <v>2948.820467144064</v>
       </c>
       <c r="S26">
-        <v>0.03772761810607624</v>
+        <v>0.04181853656342451</v>
       </c>
       <c r="T26">
-        <v>0.03772761810607624</v>
+        <v>0.04181853656342452</v>
       </c>
     </row>
   </sheetData>
